--- a/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 16 años</t>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,27 +681,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -710,22 +711,22 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -735,22 +736,22 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>33,46%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,98; 35,0</t>
+          <t>20,84; 35,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 28,84</t>
+          <t>16,36; 31,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 28,12</t>
+          <t>14,29; 29,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,43; 28,81</t>
+          <t>14,31; 29,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,12; 41,46</t>
+          <t>22,95; 41,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,87; 38,68</t>
+          <t>24,93; 39,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,53; 40,16</t>
+          <t>23,1; 38,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,4; 36,04</t>
+          <t>23,11; 37,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,52; 33,0</t>
+          <t>20,01; 33,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,4; 44,93</t>
+          <t>26,86; 45,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,46; 34,85</t>
+          <t>24,42; 34,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,72; 31,8</t>
+          <t>21,75; 32,22</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>19,83; 29,49</t>
+          <t>19,65; 29,88</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,13; 28,12</t>
+          <t>19,07; 29,2</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27,24; 41,33</t>
+          <t>26,92; 40,03</t>
         </is>
       </c>
     </row>
@@ -855,22 +856,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,22 +881,22 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,34%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>54,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>52,77%</t>
+          <t>52,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>51,54%</t>
+          <t>51,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -905,22 +906,22 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>43,53%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>43,0%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,81; 44,1</t>
+          <t>27,91; 44,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,99; 48,54</t>
+          <t>27,02; 47,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,11; 42,86</t>
+          <t>26,29; 42,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,27; 46,47</t>
+          <t>27,42; 44,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,46; 46,48</t>
+          <t>25,5; 45,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,07; 63,48</t>
+          <t>49,94; 63,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,6; 61,52</t>
+          <t>45,14; 59,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,85; 61,73</t>
+          <t>48,25; 61,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,88; 59,45</t>
+          <t>45,93; 58,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,96; 59,31</t>
+          <t>43,76; 60,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,08; 51,34</t>
+          <t>40,03; 51,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,84; 50,7</t>
+          <t>38,12; 50,71</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>39,01; 49,54</t>
+          <t>38,54; 49,32</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>37,62; 48,64</t>
+          <t>37,16; 49,15</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>37,29; 49,44</t>
+          <t>36,87; 49,98</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1026,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>66,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>67,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,22 +1051,22 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>78,14%</t>
+          <t>79,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>77,04%</t>
+          <t>77,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76,77%</t>
+          <t>76,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>69,75%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>73,27%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>71,43%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,63; 75,02</t>
+          <t>62,44; 75,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>56,32; 74,22</t>
+          <t>58,59; 72,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,15; 74,6</t>
+          <t>61,76; 73,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>58,52; 72,3</t>
+          <t>58,04; 71,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,28; 65,87</t>
+          <t>51,27; 65,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,78; 79,9</t>
+          <t>70,9; 79,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,7; 83,09</t>
+          <t>73,71; 83,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,29; 81,28</t>
+          <t>72,97; 81,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>72,2; 81,0</t>
+          <t>72,74; 81,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62,96; 74,9</t>
+          <t>63,14; 75,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68,36; 75,97</t>
+          <t>68,32; 75,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>67,52; 77,13</t>
+          <t>68,25; 77,19</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>68,76; 76,49</t>
+          <t>68,75; 76,25</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>67,33; 75,55</t>
+          <t>67,11; 75,12</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>58,93; 68,36</t>
+          <t>59,42; 68,36</t>
         </is>
       </c>
     </row>
@@ -1195,17 +1196,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,9%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1220,22 +1221,22 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1245,17 +1246,17 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,83; 47,43</t>
+          <t>35,34; 47,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,26; 47,85</t>
+          <t>35,22; 47,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,6; 46,57</t>
+          <t>35,11; 47,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,65; 42,65</t>
+          <t>31,98; 43,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,68; 50,9</t>
+          <t>35,31; 51,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,64; 35,31</t>
+          <t>25,34; 34,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,54; 36,42</t>
+          <t>26,44; 36,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 37,71</t>
+          <t>27,7; 37,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,01; 39,09</t>
+          <t>29,36; 39,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,71; 40,26</t>
+          <t>27,0; 39,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,79; 39,78</t>
+          <t>31,95; 39,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,23; 40,32</t>
+          <t>32,4; 40,27</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>32,74; 40,48</t>
+          <t>33,08; 40,73</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>32,09; 39,17</t>
+          <t>32,24; 39,47</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>33,56; 43,4</t>
+          <t>33,21; 43,68</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1366,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1390,17 +1391,17 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1415,17 +1416,17 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,84</t>
+          <t>4,81; 12,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,87; 17,56</t>
+          <t>7,02; 17,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 12,7</t>
+          <t>5,95; 12,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 10,38</t>
+          <t>4,52; 11,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,81; 16,63</t>
+          <t>5,4; 15,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,35</t>
+          <t>5,15; 12,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,82</t>
+          <t>5,49; 12,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 12,15</t>
+          <t>4,81; 12,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,07</t>
+          <t>3,11; 9,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 15,62</t>
+          <t>7,27; 15,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,91</t>
+          <t>5,75; 11,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,94</t>
+          <t>6,95; 13,36</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,21</t>
+          <t>5,94; 10,79</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,62</t>
+          <t>4,28; 8,41</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 13,99</t>
+          <t>7,6; 14,16</t>
         </is>
       </c>
     </row>
@@ -1535,22 +1536,22 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1560,22 +1561,22 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1585,22 +1586,22 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,7%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 15,99</t>
+          <t>4,05; 15,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 22,28</t>
+          <t>4,59; 18,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,91; 20,19</t>
+          <t>3,55; 17,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,52</t>
+          <t>1,98; 8,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 9,34</t>
+          <t>2,06; 9,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,57</t>
+          <t>2,37; 7,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 10,45</t>
+          <t>3,98; 11,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,16; 11,5</t>
+          <t>4,25; 11,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 11,3</t>
+          <t>4,1; 11,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 12,45</t>
+          <t>3,01; 12,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,5</t>
+          <t>3,74; 9,46</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 12,39</t>
+          <t>4,87; 12,96</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 13,86</t>
+          <t>4,78; 11,36</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>3,65; 8,34</t>
+          <t>3,67; 8,25</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,25</t>
+          <t>3,22; 9,62</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1706,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1725,22 +1726,22 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1755,12 +1756,12 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
@@ -1770,7 +1771,7 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>33,09%</t>
         </is>
       </c>
     </row>
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,26; 36,01</t>
+          <t>30,53; 36,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,6; 37,39</t>
+          <t>30,54; 36,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,54; 35,33</t>
+          <t>29,37; 35,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,82; 33,7</t>
+          <t>27,82; 33,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,46; 36,17</t>
+          <t>29,11; 36,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,08; 36,79</t>
+          <t>32,22; 37,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,65; 37,98</t>
+          <t>33,16; 38,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,39</t>
+          <t>33,45; 38,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,45; 37,22</t>
+          <t>32,51; 37,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,05; 36,79</t>
+          <t>30,92; 36,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>32,28; 36,05</t>
+          <t>32,22; 36,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>32,7; 36,82</t>
+          <t>32,7; 36,96</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>32,32; 36,12</t>
+          <t>32,19; 36,05</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>31,03; 34,73</t>
+          <t>30,88; 34,59</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>30,94; 35,38</t>
+          <t>30,88; 35,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>140541</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>116483</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>107993</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>105869</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13320</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>145660</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>142898</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>148005</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>134367</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13269</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>286201</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>259381</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>255998</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>240236</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>26590</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>106909; 179714</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>82143; 155754</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>74389; 152143</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>72480; 147382</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9656; 17491</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>115412; 180573</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>107520; 178090</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>117782; 188824</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>101859; 170200</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10046; 17192</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>238307; 337021</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>210414; 311776</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>202483; 307884</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>193708; 296545</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21392; 31810</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>198770</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>209958</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>191232</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>208570</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17408</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>293235</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>272520</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>276927</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>269181</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24336</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>492005</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>482478</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>468158</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>477752</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>41744</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>157269; 251722</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>154100; 271963</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>148681; 240539</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>162963; 266332</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12717; 22502</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>259135; 327657</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>234312; 310700</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>244086; 309594</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>236521; 302037</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20656; 28445</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>433257; 556170</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>415224; 552425</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>412950; 528422</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>412201; 545295</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>35792; 48522</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>429.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>464.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>467205</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>455485</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>460818</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>445092</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35587</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>526639</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>563924</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>554790</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>549440</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37610</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>993843</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1019409</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1015608</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>994533</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>73197</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>421997; 510809</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>399162; 496884</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>419071; 501894</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>394706; 486220</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30868; 39469</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>492211; 555091</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>523344; 595458</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>524234; 585601</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>519178; 580452</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34045; 40700</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>936032; 1040842</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>949611; 1073988</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>960476; 1065224</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>935321; 1047035</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>67810; 78013</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>265090</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>267244</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>261312</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>239171</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24932</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>211512</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>214073</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>217025</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>221349</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>17613</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>476602</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>481317</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>478336</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>460520</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>42546</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>225644; 304423</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>226336; 306612</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>225412; 302327</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>203788; 276428</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20577; 29929</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>178202; 245466</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>181278; 250342</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>185064; 251549</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>192191; 255770</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14156; 20573</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>428634; 532038</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>430406; 534937</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>433430; 533640</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>416480; 509888</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>36763; 48352</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>39729</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>51662</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>43259</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34765</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42247</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>43501</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38197</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27793</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5331</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>81976</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>95163</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>81457</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>62558</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>9739</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24609; 66048</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34474; 83759</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29778; 64144</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22142; 54076</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2404; 6867</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25858; 63449</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27701; 65445</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23844; 59970</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15842; 47975</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3547; 7516</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>58285; 112411</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>69214; 133032</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>59126; 107428</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>42759; 84068</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>7090; 13203</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>41759</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>50692</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>40807</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>22817</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>32302</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50266</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48362</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>47113</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4072</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>74062</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>100958</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>89169</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>69930</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>6272</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22169; 84641</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>25023; 102412</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>18698; 91967</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10482; 44606</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>954; 4229</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>17292; 54462</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>28421; 83995</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>29339; 78783</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>28297; 76391</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>1919; 7770</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>47823; 120946</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>61325; 163263</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>58173; 138261</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>44769; 100607</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>3547; 10594</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>429.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>491.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>613.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>860.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1031.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1027.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>689.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1153094</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1151525</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1105421</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1056285</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>97856</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1251595</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1287181</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1283306</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1249243</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>102231</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2404690</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2438706</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2388727</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2305528</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>200087</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1053035; 1257927</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1048198; 1266021</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1008416; 1202615</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>956392; 1152077</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>87706; 108458</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1163874; 1339773</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1193592; 1375573</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1199983; 1368748</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1167888; 1342249</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>93829; 111417</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2275142; 2544633</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2299764; 2599478</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>2260079; 2531175</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2171078; 2431299</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>186753; 212998</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>